--- a/src/main/resources/xlsx/pcs/wy-2-1.xlsx
+++ b/src/main/resources/xlsx/pcs/wy-2-1.xlsx
@@ -106,23 +106,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">title候选人推荐提名汇总表
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="华文中宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（“一下一上”阶段，院系级党组织用）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>2017年</t>
     </r>
     <r>
@@ -171,6 +154,23 @@
   </si>
   <si>
     <t>分党委名称：name 党支部数：branch 党员总数（含预备党员）：member 应参会党员总数：expect 实参会党员总数：actual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">title候选人推荐提名汇总表
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="华文中宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（“stage”阶段，院系级党组织用）</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -687,7 +687,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:L8"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -704,7 +704,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="16"/>
@@ -720,7 +720,7 @@
     </row>
     <row r="2" spans="1:12" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
@@ -820,7 +820,7 @@
     </row>
     <row r="8" spans="1:12" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>

--- a/src/main/resources/xlsx/pcs/wy-2-1.xlsx
+++ b/src/main/resources/xlsx/pcs/wy-2-1.xlsx
@@ -89,7 +89,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">            </t>
+      <t xml:space="preserve">                </t>
     </r>
     <r>
       <rPr>
@@ -153,10 +153,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>分党委名称：name 党支部数：branch 党员总数（含预备党员）：member 应参会党员总数：expect 实参会党员总数：actual</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">title候选人推荐提名汇总表
 </t>
@@ -171,6 +167,10 @@
       </rPr>
       <t>（“stage”阶段，院系级党组织用）</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分党委名称：name 党支部数：branch 党员总数（含预备党员）：member 应参会党员总数：expect 实参会党员总数：actual</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -686,8 +686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -704,7 +704,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="16"/>
@@ -720,7 +720,7 @@
     </row>
     <row r="2" spans="1:12" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>

--- a/src/main/resources/xlsx/pcs/wy-2-1.xlsx
+++ b/src/main/resources/xlsx/pcs/wy-2-1.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
-  <workbookPr filterPrivacy="1"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
@@ -51,10 +51,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>所在单位及职务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>职称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -153,6 +149,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>二级党组织名称：name 党支部数：branch 党员总数（含预备党员）：member 应参会党员总数：expect 实参会党员总数：actual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">title候选人推荐提名汇总表
 </t>
@@ -165,12 +165,12 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>（“stage”阶段，院系级党组织用）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分党委名称：name 党支部数：branch 党员总数（含预备党员）：member 应参会党员总数：expect 实参会党员总数：actual</t>
+      <t>（“stage”阶段，二级党组织用）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职务</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -687,7 +687,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -720,7 +720,7 @@
     </row>
     <row r="2" spans="1:12" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
@@ -750,10 +750,10 @@
       <c r="I3" s="21"/>
       <c r="J3" s="22"/>
       <c r="K3" s="18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L3" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="6" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -771,19 +771,19 @@
         <v>5</v>
       </c>
       <c r="F4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="9" t="s">
         <v>8</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>9</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>6</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="K4" s="19"/>
       <c r="L4" s="19"/>
@@ -804,7 +804,7 @@
     </row>
     <row r="7" spans="1:12" s="7" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
@@ -820,7 +820,7 @@
     </row>
     <row r="8" spans="1:12" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
